--- a/inst/params/mwTab.input.file.xlsx
+++ b/inst/params/mwTab.input.file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e79a9f1f2aaaa7d8/Documents/GitHub/csu.pmf.tools/inst/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="8_{C29C027B-CB18-430F-9DC2-5D4C6B3FF74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29511802-8148-4CC0-B998-F06E2C9110AD}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{C29C027B-CB18-430F-9DC2-5D4C6B3FF74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECBD9650-065A-43B7-981E-ABE743DC2F81}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="1" xr2:uid="{797A1F9E-F8C4-4C83-8947-B5330EAFF4FF}"/>
   </bookViews>
@@ -1026,9 +1026,6 @@
     <t>RAW_FILE_NAME</t>
   </si>
   <si>
-    <t>this is my study</t>
-  </si>
-  <si>
     <t>CSU</t>
   </si>
   <si>
@@ -1270,6 +1267,9 @@
   </si>
   <si>
     <t>MY STUDY</t>
+  </si>
+  <si>
+    <t>plant samples from roosevlent national forest were collected and plant samples from pawnee buttes national forest were collected.  Species composition is vastly different, but we wanted to compare metabolism across environments and speces to see whether there were apparent trends in how metabolism is controlled.</t>
   </si>
 </sst>
 </file>
@@ -2053,7 +2053,7 @@
         <v>154</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2067,7 +2067,7 @@
         <v>155</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2081,7 +2081,7 @@
         <v>156</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2095,7 +2095,7 @@
         <v>158</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2109,7 +2109,7 @@
         <v>159</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2224,7 +2224,7 @@
         <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2238,7 +2238,7 @@
         <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2252,7 +2252,7 @@
         <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2266,7 +2266,7 @@
         <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2280,7 +2280,7 @@
         <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2294,7 +2294,7 @@
         <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2308,7 +2308,7 @@
         <v>173</v>
       </c>
       <c r="D9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2336,7 +2336,7 @@
         <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2350,7 +2350,7 @@
         <v>196</v>
       </c>
       <c r="D12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -3430,7 +3430,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3472,7 +3472,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="73.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3486,7 +3486,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>317</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3500,7 +3500,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3514,7 +3514,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3528,7 +3528,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -3542,7 +3542,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -3556,7 +3556,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -3570,7 +3570,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -3733,7 +3733,7 @@
         <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3747,7 +3747,7 @@
         <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4584,7 +4584,7 @@
         <v>49</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -4598,7 +4598,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4834,7 +4834,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4862,10 +4862,10 @@
         <v>251</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -4876,7 +4876,7 @@
         <v>252</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -4888,7 +4888,7 @@
         <v>252</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -4900,7 +4900,7 @@
         <v>252</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -4924,7 +4924,7 @@
         <v>252</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -4936,7 +4936,7 @@
         <v>252</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -4948,7 +4948,7 @@
         <v>252</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -4960,7 +4960,7 @@
         <v>252</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -4972,7 +4972,7 @@
         <v>252</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -4984,7 +4984,7 @@
         <v>252</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -4996,7 +4996,7 @@
         <v>252</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -5008,7 +5008,7 @@
         <v>252</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -5020,7 +5020,7 @@
         <v>252</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -5032,7 +5032,7 @@
         <v>252</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -5044,7 +5044,7 @@
         <v>252</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -5056,7 +5056,7 @@
         <v>252</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -5068,7 +5068,7 @@
         <v>252</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -5080,7 +5080,7 @@
         <v>252</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -5092,7 +5092,7 @@
         <v>252</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D22" s="3"/>
     </row>
@@ -5104,7 +5104,7 @@
         <v>252</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D23" s="3"/>
     </row>
@@ -5116,7 +5116,7 @@
         <v>252</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -5128,7 +5128,7 @@
         <v>252</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -5140,7 +5140,7 @@
         <v>252</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -5152,7 +5152,7 @@
         <v>252</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -5164,7 +5164,7 @@
         <v>252</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -5176,7 +5176,7 @@
         <v>252</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D29" s="3"/>
     </row>
@@ -5188,7 +5188,7 @@
         <v>252</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D30" s="3"/>
     </row>
@@ -5200,7 +5200,7 @@
         <v>252</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D31" s="3"/>
     </row>
@@ -5212,7 +5212,7 @@
         <v>252</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D32" s="3"/>
     </row>
@@ -5224,7 +5224,7 @@
         <v>252</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -5236,7 +5236,7 @@
         <v>252</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -5248,7 +5248,7 @@
         <v>252</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -5260,7 +5260,7 @@
         <v>252</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -5272,7 +5272,7 @@
         <v>252</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -5284,7 +5284,7 @@
         <v>252</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D38" s="3"/>
     </row>
@@ -5296,7 +5296,7 @@
         <v>252</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D39" s="3"/>
     </row>
@@ -5308,7 +5308,7 @@
         <v>252</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D40" s="3"/>
     </row>
@@ -5320,7 +5320,7 @@
         <v>252</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D41" s="3"/>
     </row>
@@ -5332,7 +5332,7 @@
         <v>252</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D42" s="3"/>
     </row>
@@ -5344,7 +5344,7 @@
         <v>252</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D43" s="3"/>
     </row>
@@ -5356,7 +5356,7 @@
         <v>252</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D44" s="3"/>
     </row>
@@ -5368,7 +5368,7 @@
         <v>252</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -5380,7 +5380,7 @@
         <v>252</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D46" s="3"/>
     </row>
@@ -5392,7 +5392,7 @@
         <v>252</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D47" s="3"/>
     </row>
@@ -5452,7 +5452,7 @@
         <v>100</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5698,7 +5698,7 @@
         <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5712,7 +5712,7 @@
         <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -5726,7 +5726,7 @@
         <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -5740,7 +5740,7 @@
         <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -5768,7 +5768,7 @@
         <v>275</v>
       </c>
       <c r="D8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -5782,7 +5782,7 @@
         <v>276</v>
       </c>
       <c r="D9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -5796,7 +5796,7 @@
         <v>277</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -5824,7 +5824,7 @@
         <v>256</v>
       </c>
       <c r="D12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -5866,7 +5866,7 @@
         <v>259</v>
       </c>
       <c r="D15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -5880,7 +5880,7 @@
         <v>260</v>
       </c>
       <c r="D16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -5905,7 +5905,7 @@
         <v>262</v>
       </c>
       <c r="D18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
